--- a/exercise1.xlsx
+++ b/exercise1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianhjelmslund/Desktop/AI_MAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C1557-29EA-EF46-B4D4-EFC4971686BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1AD6CC-4A98-D242-A864-5FF572764F28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15620" xr2:uid="{574C4FF4-DC59-4040-9540-4BE0C0FA0475}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{574C4FF4-DC59-4040-9540-4BE0C0FA0475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t xml:space="preserve">Level </t>
   </si>
@@ -38,12 +38,6 @@
     <t xml:space="preserve">Strategy </t>
   </si>
   <si>
-    <t xml:space="preserve">Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory Used </t>
-  </si>
-  <si>
     <t xml:space="preserve">Solution length </t>
   </si>
   <si>
@@ -74,19 +68,13 @@
     <t xml:space="preserve">SACrunch </t>
   </si>
   <si>
-    <t>0.07s</t>
-  </si>
-  <si>
-    <t>9.96mb</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>42.24s</t>
-  </si>
-  <si>
-    <t>4090mb</t>
+    <t>Time(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Used(mb) </t>
   </si>
 </sst>
 </file>
@@ -104,17 +92,18 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="CMBX10"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="CMTT10"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="CMR10"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="CMBX10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,26 +122,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,17 +481,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD442F28-9C92-824B-846C-DDF42FD37922}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -489,16 +507,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -509,269 +527,410 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="12" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2042</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7">
+        <v>72202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C9" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>596</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5781</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11.86</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2033</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6">
+        <v>70729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5">
-        <v>144690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.78</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>70286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>11.64</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>71586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2029</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6">
+        <v>71503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6">
+        <v>71422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2036</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F25" s="6">
+        <v>71465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
@@ -779,73 +938,13 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/exercise1.xlsx
+++ b/exercise1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianhjelmslund/Desktop/AI_MAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebs8\IdeaProjects\AI_MAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1AD6CC-4A98-D242-A864-5FF572764F28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B3837D-BC37-4DD5-8C27-40CFC9B232D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{574C4FF4-DC59-4040-9540-4BE0C0FA0475}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{574C4FF4-DC59-4040-9540-4BE0C0FA0475}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t xml:space="preserve">Level </t>
   </si>
@@ -76,12 +77,27 @@
   <si>
     <t xml:space="preserve">Memory Used(mb) </t>
   </si>
+  <si>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>SAsoko1_64</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>SAsoko2_64</t>
+  </si>
+  <si>
+    <t>SAsoko3_64</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,20 +106,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="CMBX10"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="CMTT10"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="CMR10"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="CMBX10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,34 +166,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -182,6 +260,1345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D227-4FED-AC01-CC46C824D070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strategy </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D227-4FED-AC01-CC46C824D070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>201.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D227-4FED-AC01-CC46C824D070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory Used(mb) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>704.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D227-4FED-AC01-CC46C824D070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solution length </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D227-4FED-AC01-CC46C824D070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nodes Generated </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>362992</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>37690</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>9211</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>10897</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>4196</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="#,##0">
+                  <c:v>967</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="#,##0">
+                  <c:v>613103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D227-4FED-AC01-CC46C824D070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1084891792"/>
+        <c:axId val="1085312320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1084891792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085312320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1085312320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084891792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{080F52E6-AF29-46F3-95D9-4DBFA412605C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD65E9E-918E-418B-96C3-046932575194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,22 +1901,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,432 +1932,929 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C2" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D2" s="5">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E2" s="5">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F2" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="3" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C4" s="5">
         <v>0.12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D4" s="5">
         <v>6.84</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E4" s="5">
         <v>27</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F4" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="5" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C6" s="5">
         <v>20.329999999999998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D6" s="5">
         <v>2042</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F6" s="6">
         <v>72202</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="7" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C8" s="5">
         <v>2.0499999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D8" s="5">
         <v>596</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E8" s="5">
         <v>5781</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F8" s="8">
         <v>20062</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1">
-      <c r="A11" s="4" t="s">
+    <row r="9" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C10" s="5">
         <v>11.86</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D10" s="5">
         <v>2033</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F10" s="8">
         <v>70729</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="11" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C12" s="5">
         <v>0.1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D12" s="5">
         <v>7</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E12" s="5">
         <v>24</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F12" s="5">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="13" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C14" s="5">
         <v>0.16</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D14" s="5">
         <v>31</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F14" s="5">
         <v>711</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1">
-      <c r="A17" s="4" t="s">
+    <row r="15" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C16" s="5">
         <v>6.78</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D16" s="5">
         <v>2015</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F16" s="8">
         <v>70286</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="17" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C18" s="5">
         <v>11.64</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D18" s="5">
         <v>2018</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F18" s="8">
         <v>71586</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="19" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C20" s="5">
         <v>8.4</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D20" s="5">
         <v>2029</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F20" s="8">
         <v>71503</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1">
-      <c r="A23" s="4" t="s">
+    <row r="21" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C22" s="5">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D22" s="5">
         <v>2023</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F22" s="8">
         <v>71422</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1">
-      <c r="A25" s="4" t="s">
+    <row r="23" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="12" hidden="1" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C24" s="5">
         <v>7.93</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D24" s="5">
         <v>2036</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F24" s="8">
         <v>71465</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+    <row r="25" spans="1:6" ht="12" hidden="1" customHeight="1" thickBot="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="D26" s="15">
+        <v>5.08</v>
+      </c>
+      <c r="E26" s="15">
+        <v>19</v>
+      </c>
+      <c r="F26" s="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5.08</v>
+      </c>
+      <c r="E28" s="5">
+        <v>21</v>
+      </c>
+      <c r="F28" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>25.68</v>
+      </c>
+      <c r="D30" s="5">
+        <v>704.47</v>
+      </c>
+      <c r="E30" s="5">
+        <v>19</v>
+      </c>
+      <c r="F30" s="6">
+        <v>362992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.35</v>
+      </c>
+      <c r="E32" s="5">
+        <v>37</v>
+      </c>
+      <c r="F32" s="8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="D34" s="5">
+        <v>24.67</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8">
+        <v>37690</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="D36" s="5">
+        <v>11.43</v>
+      </c>
+      <c r="E36" s="5">
+        <v>16</v>
+      </c>
+      <c r="F36" s="5">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+      <c r="F40" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D42" s="5">
+        <v>70.16</v>
+      </c>
+      <c r="E42" s="5">
+        <v>60</v>
+      </c>
+      <c r="F42" s="8">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44.45</v>
+      </c>
+      <c r="E44" s="5">
+        <v>497</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="D46" s="5">
+        <v>38.18</v>
+      </c>
+      <c r="E46" s="5">
+        <v>40</v>
+      </c>
+      <c r="F46" s="8">
+        <v>10897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D48" s="5">
+        <v>9.85</v>
+      </c>
+      <c r="E48" s="5">
+        <v>58</v>
+      </c>
+      <c r="F48" s="8">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="D50" s="5">
+        <v>5.08</v>
+      </c>
+      <c r="E50" s="5">
+        <v>62</v>
+      </c>
+      <c r="F50" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="D52" s="5">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="E52" s="5">
+        <v>125</v>
+      </c>
+      <c r="F52" s="8">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="5">
+        <v>201.53</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6379</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="8">
+        <v>613103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
+  <mergeCells count="162">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>